--- a/backend/uploads/student.xlsx
+++ b/backend/uploads/student.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +421,7 @@
         <v>floor1</v>
       </c>
       <c r="C2" t="str">
-        <v>[{"breakfast":false,"lunch":false,"snacks":true,"dinner":false,"date":"2024-11-04T00:00:00.000Z","_id":"6728a98e20c0faf75a630ec6"}]</v>
+        <v>[{"breakfast":false,"lunch":false,"snacks":true,"dinner":false,"date":"2024-11-04T00:00:00.000Z","_id":"6728a98e20c0faf75a630ec6"},{"breakfast":false,"lunch":true,"snacks":false,"dinner":false,"date":"2024-11-08T00:00:00.000Z","_id":"672f92a07e29e3a357076dc3"}]</v>
       </c>
     </row>
     <row r="3">
@@ -435,9 +435,42 @@
         <v>[{"breakfast":false,"lunch":false,"snacks":true,"dinner":false,"date":"2024-11-08T00:00:00.000Z","_id":"672e0156c11c97394474ea8c"}]</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>210020041</v>
+      </c>
+      <c r="B4" t="str">
+        <v>floor1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>[{"breakfast":false,"lunch":true,"snacks":false,"dinner":false,"date":"2024-11-08T00:00:00.000Z","_id":"672f95ba069e8a9626cc9026"}]</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>210020042</v>
+      </c>
+      <c r="B5" t="str">
+        <v>floor1</v>
+      </c>
+      <c r="C5" t="str">
+        <v>[{"breakfast":false,"lunch":true,"snacks":false,"dinner":false,"date":"2024-11-08T00:00:00.000Z","_id":"672f95c0069e8a9626cc902b"}]</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>210020040</v>
+      </c>
+      <c r="B6" t="str">
+        <v>floor1</v>
+      </c>
+      <c r="C6" t="str">
+        <v>[{"breakfast":false,"lunch":true,"snacks":false,"dinner":false,"date":"2024-11-09T00:00:00.000Z","_id":"672f994486b0147b2fc03da8"},{"breakfast":false,"lunch":true,"snacks":false,"dinner":false,"date":"2024-11-08T00:00:00.000Z","_id":"672f995486b0147b2fc03db0"}]</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
 </worksheet>
 </file>